--- a/s2.xlsx
+++ b/s2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="CJJYWO/q6FO/pIpc0SzHkZW9pmd/BWUeKd628OQjT095ZDCXn+U0yBsQ6ke0k+IQsxXS5l/pZRiUdH7Y5ZLYvw==" workbookSaltValue="Mzia2lUiMHK5V/wRiSq5Lw==" workbookSpinCount="100000" lockStructure="1"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="wijbEexqhp5yvHbZYmqbl1IoewRBGbGm/G6uYOpCXB1bqP4kItGikx3FJ4GyCjCk8ZUBqWcBY3smqyWhi3Hg3A==" workbookSaltValue="sghFpvhurY/qSMD5uDFNig==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" firstSheet="1" activeTab="1"/>
   </bookViews>
@@ -1266,17 +1266,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>I'm Barbee. 
-I'm a honeybee. 
-I like flowers.
-They have sweet juice inside &lt;ins&gt;them&lt;/ins&gt;.
-I dance and call my friends.
-We drink the sweet juice.
-We bring the juice into our &lt;ins&gt;home&lt;/ins&gt;.
-We make honey with the juice.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>꿀벌들은 왜 춤을 추나요?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1349,20 +1338,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>My dad drives a car.
-Dirty smoke comes out of his car.
-My mom has a car, too.
-Her car is an electric car.
-Electric cars use batteries.
-They can reduce air pollution.
-Harmful things get into the air.
-This makes air pollution.
-Dust and smoke from cars, fires, and factories are harmful.
-The air gets dirty because of &lt;ins&gt;them&lt;/ins&gt;.
-Living things get sick because of the dirty air.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>이 글은 무엇에 대한 내용인가요?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1463,17 +1438,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>I'm Sally. 
-I have some bad habits. 
-Do you have any bad habits?
-I shake my leg.
-I bite my fingernails.
-These habits bother my &lt;ins&gt;parents&lt;/ins&gt;.
-My mom and dad get angry.
-But I cannot stop my bad habits.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>이 글의 제목으로 알맞은 것은 어떤 것인가요?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1542,20 +1506,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>I am an ant and my name is Andy.
-I live underground and in trees.
-Ants have six legs and we are &lt;ins&gt;tiny&lt;/ins&gt; insects.
-&lt;ins&gt;We&lt;/ins&gt; carry heavy things with other ants.
-I have some cookie crumbs.
-A bug is in the web.
-He has eight legs.
-“Are you an ant?”
-“No, I’m a spider.”
-“Are you an insect?”
-“No, I’m not. I am only a spider.”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>개미는 다리가 몇 개인가요?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1649,6 +1599,56 @@
   </si>
   <si>
     <t>smart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'm Barbee.&lt;br&gt;
+I'm a honeybee.&lt;br&gt;
+I like flowers.&lt;br&gt;
+They have sweet juice inside &lt;ins&gt;them&lt;/ins&gt;.&lt;br&gt;
+I dance and call my friends.&lt;br&gt;
+We drink the sweet juice.&lt;br&gt;
+We bring the juice into our &lt;ins&gt;home&lt;/ins&gt;.&lt;br&gt;
+We make honey with the juice.&lt;br&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>My dad drives a car.&lt;br&gt;
+Dirty smoke comes out of his car.&lt;br&gt;
+My mom has a car, too.&lt;br&gt;
+Her car is an electric car.&lt;br&gt;
+Electric cars use batteries.&lt;br&gt;
+They can reduce air pollution.&lt;br&gt;
+Harmful things get into the air.&lt;br&gt;
+This makes air pollution.&lt;br&gt;
+Dust and smoke from cars, fires, and factories are harmful.&lt;br&gt;
+The air gets dirty because of &lt;ins&gt;them&lt;/ins&gt;.&lt;br&gt;
+Living things get sick because of the dirty air.&lt;br&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'm Sally.&lt;br&gt;
+I have some bad habits.&lt;br&gt;
+Do you have any bad habits?&lt;br&gt;
+I shake my leg.&lt;br&gt;
+I bite my fingernails.&lt;br&gt;
+These habits bother my &lt;ins&gt;parents&lt;/ins&gt;.&lt;br&gt;
+My mom and dad get angry.&lt;br&gt;
+But I cannot stop my bad habits.&lt;br&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I am an ant and my name is Andy.&lt;br&gt;
+I live underground and in trees.&lt;br&gt;
+Ants have six legs and we are &lt;ins&gt;tiny&lt;/ins&gt; insects.&lt;br&gt;
+&lt;ins&gt;We&lt;/ins&gt; carry heavy things with other ants.&lt;br&gt;
+I have some cookie crumbs.&lt;br&gt;
+A bug is in the web.&lt;br&gt;
+He has eight legs.&lt;br&gt;
+“Are you an ant?”&lt;br&gt;
+“No, I’m a spider.”&lt;br&gt;
+“Are you an insect?”&lt;br&gt;
+“No, I’m not. I am only a spider.”&lt;br&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1984,8 +1984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA86"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="A86" sqref="A86"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="G85" sqref="G85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4635,22 +4635,25 @@
         <v>1</v>
       </c>
       <c r="F67" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="G67" t="s">
+        <v>331</v>
+      </c>
+      <c r="H67" t="s">
         <v>315</v>
       </c>
-      <c r="G67" t="s">
-        <v>332</v>
-      </c>
-      <c r="H67" t="s">
-        <v>316</v>
+      <c r="I67">
+        <v>3</v>
       </c>
       <c r="J67" t="s">
+        <v>319</v>
+      </c>
+      <c r="K67" t="s">
         <v>320</v>
       </c>
-      <c r="K67" t="s">
+      <c r="L67" t="s">
         <v>321</v>
-      </c>
-      <c r="L67" t="s">
-        <v>322</v>
       </c>
       <c r="AA67">
         <v>2</v>
@@ -4673,22 +4676,25 @@
         <v>1</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>315</v>
+        <v>399</v>
       </c>
       <c r="G68" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H68" t="s">
-        <v>317</v>
+        <v>316</v>
+      </c>
+      <c r="I68">
+        <v>3</v>
       </c>
       <c r="J68" t="s">
+        <v>322</v>
+      </c>
+      <c r="K68" t="s">
         <v>323</v>
       </c>
-      <c r="K68" t="s">
+      <c r="L68" t="s">
         <v>324</v>
-      </c>
-      <c r="L68" t="s">
-        <v>325</v>
       </c>
       <c r="AA68">
         <v>1</v>
@@ -4711,22 +4717,25 @@
         <v>1</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>315</v>
+        <v>399</v>
       </c>
       <c r="G69" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H69" t="s">
-        <v>318</v>
+        <v>317</v>
+      </c>
+      <c r="I69">
+        <v>3</v>
       </c>
       <c r="J69" t="s">
+        <v>325</v>
+      </c>
+      <c r="K69" t="s">
         <v>326</v>
       </c>
-      <c r="K69" t="s">
+      <c r="L69" t="s">
         <v>327</v>
-      </c>
-      <c r="L69" t="s">
-        <v>328</v>
       </c>
       <c r="AA69">
         <v>3</v>
@@ -4749,22 +4758,25 @@
         <v>1</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>315</v>
+        <v>399</v>
       </c>
       <c r="G70" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H70" t="s">
-        <v>319</v>
+        <v>318</v>
+      </c>
+      <c r="I70">
+        <v>3</v>
       </c>
       <c r="J70" t="s">
+        <v>328</v>
+      </c>
+      <c r="K70" t="s">
         <v>329</v>
       </c>
-      <c r="K70" t="s">
+      <c r="L70" t="s">
         <v>330</v>
-      </c>
-      <c r="L70" t="s">
-        <v>331</v>
       </c>
       <c r="AA70">
         <v>2</v>
@@ -4787,22 +4799,25 @@
         <v>1</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>334</v>
+        <v>400</v>
       </c>
       <c r="G71" t="s">
+        <v>332</v>
+      </c>
+      <c r="H71" t="s">
         <v>333</v>
       </c>
-      <c r="H71" t="s">
-        <v>335</v>
+      <c r="I71">
+        <v>3</v>
       </c>
       <c r="J71" t="s">
+        <v>339</v>
+      </c>
+      <c r="K71" t="s">
+        <v>340</v>
+      </c>
+      <c r="L71" t="s">
         <v>341</v>
-      </c>
-      <c r="K71" t="s">
-        <v>342</v>
-      </c>
-      <c r="L71" t="s">
-        <v>343</v>
       </c>
       <c r="AA71">
         <v>3</v>
@@ -4825,22 +4840,25 @@
         <v>1</v>
       </c>
       <c r="F72" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="G72" t="s">
+        <v>332</v>
+      </c>
+      <c r="H72" t="s">
         <v>334</v>
       </c>
-      <c r="G72" t="s">
-        <v>333</v>
-      </c>
-      <c r="H72" t="s">
-        <v>336</v>
+      <c r="I72">
+        <v>3</v>
       </c>
       <c r="J72" t="s">
+        <v>342</v>
+      </c>
+      <c r="K72" t="s">
+        <v>343</v>
+      </c>
+      <c r="L72" t="s">
         <v>344</v>
-      </c>
-      <c r="K72" t="s">
-        <v>345</v>
-      </c>
-      <c r="L72" t="s">
-        <v>346</v>
       </c>
       <c r="AA72">
         <v>1</v>
@@ -4863,22 +4881,25 @@
         <v>1</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>334</v>
+        <v>400</v>
       </c>
       <c r="G73" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H73" t="s">
-        <v>337</v>
+        <v>335</v>
+      </c>
+      <c r="I73">
+        <v>3</v>
       </c>
       <c r="J73" t="s">
+        <v>345</v>
+      </c>
+      <c r="K73" t="s">
+        <v>346</v>
+      </c>
+      <c r="L73" t="s">
         <v>347</v>
-      </c>
-      <c r="K73" t="s">
-        <v>348</v>
-      </c>
-      <c r="L73" t="s">
-        <v>349</v>
       </c>
       <c r="AA73">
         <v>3</v>
@@ -4901,22 +4922,25 @@
         <v>1</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>334</v>
+        <v>400</v>
       </c>
       <c r="G74" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H74" t="s">
-        <v>338</v>
+        <v>336</v>
+      </c>
+      <c r="I74">
+        <v>3</v>
       </c>
       <c r="J74" t="s">
+        <v>348</v>
+      </c>
+      <c r="K74" t="s">
+        <v>349</v>
+      </c>
+      <c r="L74" t="s">
         <v>350</v>
-      </c>
-      <c r="K74" t="s">
-        <v>351</v>
-      </c>
-      <c r="L74" t="s">
-        <v>352</v>
       </c>
       <c r="AA74">
         <v>2</v>
@@ -4939,22 +4963,25 @@
         <v>1</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>334</v>
+        <v>400</v>
       </c>
       <c r="G75" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H75" t="s">
-        <v>339</v>
+        <v>337</v>
+      </c>
+      <c r="I75">
+        <v>3</v>
       </c>
       <c r="J75" t="s">
+        <v>351</v>
+      </c>
+      <c r="K75" t="s">
+        <v>352</v>
+      </c>
+      <c r="L75" t="s">
         <v>353</v>
-      </c>
-      <c r="K75" t="s">
-        <v>354</v>
-      </c>
-      <c r="L75" t="s">
-        <v>355</v>
       </c>
       <c r="AA75">
         <v>3</v>
@@ -4977,22 +5004,25 @@
         <v>1</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>334</v>
+        <v>400</v>
       </c>
       <c r="G76" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H76" t="s">
-        <v>340</v>
+        <v>338</v>
+      </c>
+      <c r="I76">
+        <v>3</v>
       </c>
       <c r="J76" t="s">
+        <v>354</v>
+      </c>
+      <c r="K76" t="s">
+        <v>355</v>
+      </c>
+      <c r="L76" t="s">
         <v>356</v>
-      </c>
-      <c r="K76" t="s">
-        <v>357</v>
-      </c>
-      <c r="L76" t="s">
-        <v>358</v>
       </c>
       <c r="AA76">
         <v>1</v>
@@ -5015,22 +5045,25 @@
         <v>1</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>360</v>
+        <v>401</v>
       </c>
       <c r="G77" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="H77" t="s">
-        <v>361</v>
+        <v>358</v>
+      </c>
+      <c r="I77">
+        <v>3</v>
       </c>
       <c r="J77" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="K77" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="L77" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AA77">
         <v>2</v>
@@ -5053,22 +5086,25 @@
         <v>1</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>360</v>
+        <v>401</v>
       </c>
       <c r="G78" t="s">
+        <v>357</v>
+      </c>
+      <c r="H78" t="s">
         <v>359</v>
       </c>
-      <c r="H78" t="s">
-        <v>362</v>
+      <c r="I78">
+        <v>3</v>
       </c>
       <c r="J78" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="K78" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="L78" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="AA78">
         <v>2</v>
@@ -5091,22 +5127,25 @@
         <v>1</v>
       </c>
       <c r="F79" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="G79" t="s">
+        <v>357</v>
+      </c>
+      <c r="H79" t="s">
         <v>360</v>
       </c>
-      <c r="G79" t="s">
-        <v>359</v>
-      </c>
-      <c r="H79" t="s">
-        <v>363</v>
+      <c r="I79">
+        <v>3</v>
       </c>
       <c r="J79" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="K79" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L79" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="AA79">
         <v>3</v>
@@ -5129,22 +5168,25 @@
         <v>1</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>360</v>
+        <v>401</v>
       </c>
       <c r="G80" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="H80" t="s">
-        <v>364</v>
+        <v>361</v>
+      </c>
+      <c r="I80">
+        <v>3</v>
       </c>
       <c r="J80" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="K80" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="L80" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="AA80">
         <v>1</v>
@@ -5167,22 +5209,25 @@
         <v>1</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>378</v>
+        <v>402</v>
       </c>
       <c r="G81" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="H81" t="s">
-        <v>379</v>
+        <v>375</v>
+      </c>
+      <c r="I81">
+        <v>3</v>
       </c>
       <c r="J81" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="K81" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="L81" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="AA81">
         <v>2</v>
@@ -5205,22 +5250,25 @@
         <v>1</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>378</v>
+        <v>402</v>
       </c>
       <c r="G82" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="H82" t="s">
-        <v>380</v>
+        <v>376</v>
+      </c>
+      <c r="I82">
+        <v>3</v>
       </c>
       <c r="J82" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="K82" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="L82" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="AA82">
         <v>2</v>
@@ -5243,22 +5291,25 @@
         <v>1</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>378</v>
+        <v>402</v>
       </c>
       <c r="G83" t="s">
+        <v>374</v>
+      </c>
+      <c r="H83" t="s">
         <v>377</v>
       </c>
-      <c r="H83" t="s">
-        <v>381</v>
+      <c r="I83">
+        <v>3</v>
       </c>
       <c r="J83" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="K83" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="L83" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="AA83">
         <v>3</v>
@@ -5281,22 +5332,25 @@
         <v>1</v>
       </c>
       <c r="F84" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="G84" t="s">
+        <v>374</v>
+      </c>
+      <c r="H84" t="s">
         <v>378</v>
       </c>
-      <c r="G84" t="s">
-        <v>377</v>
-      </c>
-      <c r="H84" t="s">
-        <v>382</v>
+      <c r="I84">
+        <v>3</v>
       </c>
       <c r="J84" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="K84" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="L84" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="AA84">
         <v>1</v>
@@ -5319,22 +5373,25 @@
         <v>1</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>378</v>
+        <v>402</v>
       </c>
       <c r="G85" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="H85" t="s">
-        <v>383</v>
+        <v>379</v>
+      </c>
+      <c r="I85">
+        <v>3</v>
       </c>
       <c r="J85" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="K85" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="L85" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="AA85">
         <v>1</v>
@@ -5357,22 +5414,25 @@
         <v>1</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>378</v>
+        <v>402</v>
       </c>
       <c r="G86" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="H86" t="s">
-        <v>384</v>
+        <v>380</v>
+      </c>
+      <c r="I86">
+        <v>3</v>
       </c>
       <c r="J86" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="K86" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="L86" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="AA86">
         <v>2</v>
@@ -5388,7 +5448,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
